--- a/uams_design.xlsx
+++ b/uams_design.xlsx
@@ -12,7 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Student" sheetId="2" r:id="rId2"/>
+    <sheet name="Faculty" sheetId="3" r:id="rId3"/>
+    <sheet name="Course" sheetId="4" r:id="rId4"/>
+    <sheet name="Assignments" sheetId="5" r:id="rId5"/>
+    <sheet name="Time Table" sheetId="6" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId7"/>
+    <sheet name="Report" sheetId="8" r:id="rId8"/>
+    <sheet name="Survey" sheetId="9" r:id="rId9"/>
+    <sheet name="Discussion" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,9 +32,227 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>Student Portal</t>
+  </si>
+  <si>
+    <t>Activity and Achievements</t>
+  </si>
+  <si>
+    <t>Detailed Student Profile</t>
+  </si>
+  <si>
+    <t>Student Categorization</t>
+  </si>
+  <si>
+    <t>Multiple Course Admission</t>
+  </si>
+  <si>
+    <t>Application &amp; Admission</t>
+  </si>
+  <si>
+    <t>Address &amp; University Information</t>
+  </si>
+  <si>
+    <t>Faculty Profile</t>
+  </si>
+  <si>
+    <t>Skill Tracking</t>
+  </si>
+  <si>
+    <t>Connected with HR Management</t>
+  </si>
+  <si>
+    <t>Class Room Scheduling</t>
+  </si>
+  <si>
+    <t>Course Scheduling</t>
+  </si>
+  <si>
+    <t>Payroll &amp; Expenses</t>
+  </si>
+  <si>
+    <t>Curriculam</t>
+  </si>
+  <si>
+    <t>Lesson Plan</t>
+  </si>
+  <si>
+    <t>Course Hierarchy</t>
+  </si>
+  <si>
+    <t>TimeTable</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>Report Card</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Online Enrollment</t>
+  </si>
+  <si>
+    <t>Planned Admissions</t>
+  </si>
+  <si>
+    <t>Seats Management</t>
+  </si>
+  <si>
+    <t>Integrated Communication</t>
+  </si>
+  <si>
+    <t>Document Management</t>
+  </si>
+  <si>
+    <t>Multiple Evaluation Methods</t>
+  </si>
+  <si>
+    <t>Online Exams</t>
+  </si>
+  <si>
+    <t>Automated Report Card</t>
+  </si>
+  <si>
+    <t>Statistical Reports and Charts</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Instant Notifications</t>
+  </si>
+  <si>
+    <t>Submission Reminders</t>
+  </si>
+  <si>
+    <t>Individual or Group Based Assignment Allocation</t>
+  </si>
+  <si>
+    <t>Easy Assignment Attachment with Submission</t>
+  </si>
+  <si>
+    <t>Comment and Feedback For Submission</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Drag and Drop Based Design</t>
+  </si>
+  <si>
+    <t>Scheduling Baed On Course</t>
+  </si>
+  <si>
+    <t>Intuative &amp; Effective Scheduling</t>
+  </si>
+  <si>
+    <t>Scheduling Based on Batch</t>
+  </si>
+  <si>
+    <t>Instant Notification</t>
+  </si>
+  <si>
+    <t>Integrated with Calendar</t>
+  </si>
+  <si>
+    <t>Time Table</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Easy Attendance Taking</t>
+  </si>
+  <si>
+    <t>Attendance By Course</t>
+  </si>
+  <si>
+    <t>Attendance By Class</t>
+  </si>
+  <si>
+    <t>Configurable Attendance Sheets</t>
+  </si>
+  <si>
+    <t>Configurable Alerts</t>
+  </si>
+  <si>
+    <t>Detailed Reporting</t>
+  </si>
+  <si>
+    <t>Bio Matric Integration</t>
+  </si>
+  <si>
+    <t>All KPI At one Place</t>
+  </si>
+  <si>
+    <t>User Based</t>
+  </si>
+  <si>
+    <t>Highly Customizable</t>
+  </si>
+  <si>
+    <t>Easy To Configure</t>
+  </si>
+  <si>
+    <t>Well Structured</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Advance Analysis</t>
+  </si>
+  <si>
+    <t>Built-in Business Intelligance</t>
+  </si>
+  <si>
+    <t>Seamlessly Powerfull Reporting</t>
+  </si>
+  <si>
+    <t>Do It Your Self</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Share and Collect</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Simple and Intuative</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Multiple Discussion Rooms</t>
+  </si>
+  <si>
+    <t>#hashtags</t>
+  </si>
+  <si>
+    <t>User Tagging</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +266,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,9 +294,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,24 +361,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -157,9 +399,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0" i="0">
+            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -171,9 +413,9 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -213,24 +455,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -255,9 +493,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0" i="0">
+            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -267,9 +505,9 @@
             <a:t> Faculty </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -278,9 +516,9 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0" i="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1" i="0">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -290,9 +528,9 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -332,24 +570,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -374,9 +608,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -385,9 +619,9 @@
             </a:rPr>
             <a:t>Assignments </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -427,24 +661,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -453,9 +683,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -464,9 +694,9 @@
             </a:rPr>
             <a:t>Exam </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -506,24 +736,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -548,9 +774,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0" i="0">
+            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -560,9 +786,9 @@
             <a:t>Course</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -572,9 +798,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0" i="0">
+            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -586,9 +812,9 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -628,24 +854,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -654,9 +876,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -665,9 +887,9 @@
             </a:rPr>
             <a:t>Time Table </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -707,24 +929,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -733,9 +951,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -744,9 +962,9 @@
             </a:rPr>
             <a:t>Discussion </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -786,24 +1004,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -812,9 +1026,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -823,9 +1037,9 @@
             </a:rPr>
             <a:t>Survey </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -865,24 +1079,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -891,9 +1101,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -902,9 +1112,9 @@
             </a:rPr>
             <a:t>Reporting </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -944,24 +1154,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -970,9 +1176,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="0">
+            <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -981,9 +1187,9 @@
             </a:rPr>
             <a:t>Dashboard </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="0">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1294,7 +1500,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,4 +1512,510 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="58.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="58" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="46.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="44.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uams_design.xlsx
+++ b/uams_design.xlsx
@@ -331,16 +331,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>65240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>191153</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>516208</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>42536</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>71933</xdr:rowOff>
+      <xdr:colOff>562865</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -355,8 +355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65240" y="5084132"/>
-          <a:ext cx="2430310" cy="663657"/>
+          <a:off x="1730646" y="2548103"/>
+          <a:ext cx="1261094" cy="338826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,17 +364,17 @@
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -401,21 +401,27 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Student </a:t>
+            <a:t>Student</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -425,16 +431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30532</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158402</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37074</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11482</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44402</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15373</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -449,8 +455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6163066" y="5051381"/>
-          <a:ext cx="2433964" cy="668877"/>
+          <a:off x="4894824" y="2531382"/>
+          <a:ext cx="1262990" cy="341491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,21 +464,21 @@
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -495,7 +501,10 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -507,7 +516,10 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -518,7 +530,10 @@
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1400" b="1" i="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -530,7 +545,10 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-IN" sz="1400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -541,660 +559,941 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
+      <xdr:colOff>256735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>148617</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>316752</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67631</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="Group 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8911DC3-DB57-4C22-A21D-3AB43BB58F11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500EA021-9CBD-44E4-A8AE-3E547B70116A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3292829" y="456907"/>
+          <a:ext cx="1274454" cy="3992224"/>
+          <a:chOff x="3292829" y="456907"/>
+          <a:chExt cx="1274454" cy="3992224"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8911DC3-DB57-4C22-A21D-3AB43BB58F11}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3303345" y="2542849"/>
+            <a:ext cx="1262990" cy="338827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Assignments </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEFA302-70F2-4BA4-BD30-EAEC4925E455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3303029" y="2022141"/>
+            <a:ext cx="1262990" cy="338826"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Exam </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0391A1B6-8B35-4FD3-8551-32DA4B111F50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3303977" y="3584266"/>
+            <a:ext cx="1262990" cy="341491"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Course</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936687D8-65B2-4A16-AEB2-4B7CC96FD57E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3304609" y="1498768"/>
+            <a:ext cx="1261094" cy="341491"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Time Table </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8914D21-1715-45EE-8DBB-AF36F9E7BFBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3292829" y="456907"/>
+            <a:ext cx="1261094" cy="338826"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Discussion </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04223C-A62B-4B87-95BA-92505FBB934A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3303661" y="3063558"/>
+            <a:ext cx="1262990" cy="338826"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Survey </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C63DF2E-2627-4362-8CE0-1B78E47EC455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3304293" y="4107640"/>
+            <a:ext cx="1262990" cy="341491"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Reporting </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B54227-8392-431F-AEF2-B9A8A9C8627D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3304293" y="978060"/>
+            <a:ext cx="1262990" cy="338826"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Dashboard </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562865</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>267883</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360A4782-8A0E-4562-AB82-745670CBF4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="6930117"/>
-          <a:ext cx="2419350" cy="648000"/>
+          <a:off x="2991740" y="2717516"/>
+          <a:ext cx="312237" cy="1037496"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Assignments </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>93889</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>316436</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>170389</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135512</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEFA302-70F2-4BA4-BD30-EAEC4925E455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0102F5-291F-4FA4-9666-870A28F46FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="2951389"/>
-          <a:ext cx="2419350" cy="648000"/>
+        <a:xfrm flipV="1">
+          <a:off x="4566967" y="2702128"/>
+          <a:ext cx="327857" cy="1052884"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Exam </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>178253</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539538</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>64253</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256736</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71603</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0391A1B6-8B35-4FD3-8551-32DA4B111F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80D9606-FE33-4C01-80AE-E650413FF026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3067050" y="4940753"/>
-          <a:ext cx="2419350" cy="648000"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1866120" y="1121394"/>
+          <a:ext cx="1921783" cy="931636"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Course</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539537</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22071</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71603</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936687D8-65B2-4A16-AEB2-4B7CC96FD57E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6940EB5-D8C3-43C1-B01B-1F163D58F810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="3946071"/>
-          <a:ext cx="2419350" cy="648000"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2132428" y="1376238"/>
+          <a:ext cx="1400630" cy="943100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Time Table </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>86025</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266936</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71603</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8914D21-1715-45EE-8DBB-AF36F9E7BFBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E981F733-D4BF-4DA0-AD7B-83670032B0ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057525" y="962025"/>
-          <a:ext cx="2419350" cy="648000"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2653837" y="1898911"/>
+          <a:ext cx="356549" cy="941836"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Discussion </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>29935</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539538</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>106435</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268516</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71603</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connector: Elbow 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04223C-A62B-4B87-95BA-92505FBB934A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28D3B21-E58B-42E1-A6D2-B52FDDDDF037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3038475" y="5935435"/>
-          <a:ext cx="2419350" cy="648000"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2393607" y="1637101"/>
+          <a:ext cx="878589" cy="943416"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Survey </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C63DF2E-2627-4362-8CE0-1B78E47EC455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="7924800"/>
-          <a:ext cx="2419350" cy="648000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Reporting </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128207</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B54227-8392-431F-AEF2-B9A8A9C8627D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3067050" y="1956707"/>
-          <a:ext cx="2419350" cy="648000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dashboard </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1499,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uams_design.xlsx
+++ b/uams_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -333,248 +333,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>516208</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>562865</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A2E16A-F7D4-43A9-8528-8FCA94950D2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1730646" y="2548103"/>
-          <a:ext cx="1261094" cy="338826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Student</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37074</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>54882</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85626</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15373</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78799CAB-64A8-44B5-AA28-3463CACADBBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4894824" y="2531382"/>
-          <a:ext cx="1262990" cy="341491"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Faculty </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>256735</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>75907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>316752</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>67631</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Group 16">
+        <xdr:cNvPr id="57" name="Group 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500EA021-9CBD-44E4-A8AE-3E547B70116A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A64027-DC77-40C7-AD55-18FCA4C76321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,18 +355,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3292829" y="456907"/>
-          <a:ext cx="1274454" cy="3992224"/>
-          <a:chOff x="3292829" y="456907"/>
-          <a:chExt cx="1274454" cy="3992224"/>
+          <a:off x="1730646" y="456907"/>
+          <a:ext cx="4427168" cy="3992224"/>
+          <a:chOff x="1730646" y="456907"/>
+          <a:chExt cx="4427168" cy="3992224"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4">
+          <xdr:cNvPr id="2" name="Rectangle 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8911DC3-DB57-4C22-A21D-3AB43BB58F11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A2E16A-F7D4-43A9-8528-8FCA94950D2E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -601,8 +374,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3303345" y="2542849"/>
-            <a:ext cx="1262990" cy="338827"/>
+            <a:off x="1730646" y="2283606"/>
+            <a:ext cx="1261094" cy="338826"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -645,37 +418,40 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:rPr lang="en-IN" sz="1200" b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Assignments </a:t>
+              <a:t>Student</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-IN" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5">
+          <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEFA302-70F2-4BA4-BD30-EAEC4925E455}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78799CAB-64A8-44B5-AA28-3463CACADBBC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -683,73 +459,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3303029" y="2022141"/>
-            <a:ext cx="1262990" cy="338826"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Exam </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0391A1B6-8B35-4FD3-8551-32DA4B111F50}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3303977" y="3584266"/>
+            <a:off x="4894824" y="2282274"/>
             <a:ext cx="1262990" cy="341491"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -772,7 +482,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -793,707 +503,1315 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1" i="0">
+              <a:rPr lang="en-IN" sz="1200" b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Course</a:t>
+              <a:t> Faculty </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+            <a:endParaRPr lang="en-IN" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Group 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936687D8-65B2-4A16-AEB2-4B7CC96FD57E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500EA021-9CBD-44E4-A8AE-3E547B70116A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3304609" y="1498768"/>
-            <a:ext cx="1261094" cy="341491"/>
+            <a:off x="3292829" y="456907"/>
+            <a:ext cx="1274454" cy="3992224"/>
+            <a:chOff x="3292829" y="456907"/>
+            <a:chExt cx="1274454" cy="3992224"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Rectangle 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8911DC3-DB57-4C22-A21D-3AB43BB58F11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3303345" y="2542849"/>
+              <a:ext cx="1262990" cy="338827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Assignments </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Time Table </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEFA302-70F2-4BA4-BD30-EAEC4925E455}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3303029" y="2022141"/>
+              <a:ext cx="1262990" cy="338826"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Exam </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Rectangle 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0391A1B6-8B35-4FD3-8551-32DA4B111F50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3303977" y="3584266"/>
+              <a:ext cx="1262990" cy="341491"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Course</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Rectangle 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936687D8-65B2-4A16-AEB2-4B7CC96FD57E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3304609" y="1498768"/>
+              <a:ext cx="1261094" cy="341491"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Time Table </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Rectangle 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8914D21-1715-45EE-8DBB-AF36F9E7BFBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3292829" y="456907"/>
+              <a:ext cx="1261094" cy="338826"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Discussion </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Rectangle 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04223C-A62B-4B87-95BA-92505FBB934A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3303661" y="3063558"/>
+              <a:ext cx="1262990" cy="338826"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Survey </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Rectangle 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C63DF2E-2627-4362-8CE0-1B78E47EC455}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3304293" y="4107640"/>
+              <a:ext cx="1262990" cy="341491"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Reporting </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectangle 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B54227-8392-431F-AEF2-B9A8A9C8627D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3304293" y="978060"/>
+              <a:ext cx="1262990" cy="338826"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Dashboard </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="Connector: Elbow 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8914D21-1715-45EE-8DBB-AF36F9E7BFBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80D9606-FE33-4C01-80AE-E650413FF026}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="0"/>
+            <a:endCxn id="9" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3292829" y="456907"/>
-            <a:ext cx="1261094" cy="338826"/>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="1998368" y="989145"/>
+            <a:ext cx="1657286" cy="931636"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="bentConnector2">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln/>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Discussion </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9">
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Connector: Elbow 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04223C-A62B-4B87-95BA-92505FBB934A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6940EB5-D8C3-43C1-B01B-1F163D58F810}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="0"/>
+            <a:endCxn id="12" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3303661" y="3063558"/>
-            <a:ext cx="1262990" cy="338826"/>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2264677" y="1243990"/>
+            <a:ext cx="1136133" cy="943100"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="bentConnector2">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln/>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Survey </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10">
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Connector: Elbow 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C63DF2E-2627-4362-8CE0-1B78E47EC455}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E981F733-D4BF-4DA0-AD7B-83670032B0ED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="0"/>
+            <a:endCxn id="6" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3304293" y="4107640"/>
-            <a:ext cx="1262990" cy="341491"/>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2786085" y="1766662"/>
+            <a:ext cx="92052" cy="941836"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="bentConnector2">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln/>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Reporting </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11">
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Connector: Elbow 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B54227-8392-431F-AEF2-B9A8A9C8627D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28D3B21-E58B-42E1-A6D2-B52FDDDDF037}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="0"/>
+            <a:endCxn id="8" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2525855" y="1504852"/>
+            <a:ext cx="614092" cy="943416"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="Connector: Elbow 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D385664-7BA7-499D-9005-D85E790206A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="11" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2004766" y="2978859"/>
+            <a:ext cx="1655954" cy="943100"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Connector: Elbow 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4C0040-A2C7-4C0E-8DB5-9E7DFECDBCD5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4567283" y="2623765"/>
+            <a:ext cx="959036" cy="1654621"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="Connector: Elbow 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E22F79-3072-45DD-AE1F-1604CC86F4F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4566967" y="2623765"/>
+            <a:ext cx="959352" cy="1131247"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="Connector: Elbow 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441CC395-613A-4B46-9818-8CEBC9B01204}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="7" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2266295" y="2717330"/>
+            <a:ext cx="1132580" cy="942784"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Connector: Elbow 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11361A69-6F6A-41CE-AC4C-F1DF3F3A0E00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="10" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2527158" y="2456467"/>
+            <a:ext cx="610539" cy="942468"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Connector: Elbow 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3227BD-C802-4F8D-83BB-E6207B2FCFA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="10" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4566651" y="2623765"/>
+            <a:ext cx="959668" cy="609206"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Connector: Elbow 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5382936-3AAF-46AB-8756-4497C09555FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="5" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2787354" y="2196271"/>
+            <a:ext cx="89831" cy="942152"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Connector: Elbow 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBEF122-6DF9-4B9C-953D-516E0D4AD7CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4566335" y="2623765"/>
+            <a:ext cx="959984" cy="88498"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Connector: Elbow 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2E5AD7-9885-4D42-9EA8-A2E07A539127}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="9" idx="3"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3304293" y="978060"/>
-            <a:ext cx="1262990" cy="338826"/>
+            <a:off x="4553923" y="626320"/>
+            <a:ext cx="972396" cy="1655954"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="bentConnector2">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln/>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Dashboard </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="Connector: Elbow 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3BC6DC-88AD-43D2-85F1-376139E99E04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="12" idx="3"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4567283" y="1147473"/>
+            <a:ext cx="959036" cy="1134801"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Connector: Elbow 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75785E4D-C2E7-4CB0-B491-A002B9DA7417}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="3"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4565703" y="1669514"/>
+            <a:ext cx="960616" cy="612760"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Connector: Elbow 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552A46AE-01CD-479E-8217-D6EEB8E1F66E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="3"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4566019" y="2191554"/>
+            <a:ext cx="960300" cy="90720"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>562865</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>267883</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>135512</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360A4782-8A0E-4562-AB82-745670CBF4C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2991740" y="2717516"/>
-          <a:ext cx="312237" cy="1037496"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>316436</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37074</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>135512</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0102F5-291F-4FA4-9666-870A28F46FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4566967" y="2702128"/>
-          <a:ext cx="327857" cy="1052884"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539538</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>54820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>256736</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71603</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Connector: Elbow 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80D9606-FE33-4C01-80AE-E650413FF026}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1866120" y="1121394"/>
-          <a:ext cx="1921783" cy="931636"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539537</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>268199</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71603</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Connector: Elbow 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6940EB5-D8C3-43C1-B01B-1F163D58F810}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2132428" y="1376238"/>
-          <a:ext cx="1400630" cy="943100"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539538</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>96054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266936</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71603</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connector: Elbow 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E981F733-D4BF-4DA0-AD7B-83670032B0ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2653837" y="1898911"/>
-          <a:ext cx="356549" cy="941836"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539538</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>268516</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71603</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connector: Elbow 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28D3B21-E58B-42E1-A6D2-B52FDDDDF037}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2393607" y="1637101"/>
-          <a:ext cx="878589" cy="943416"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1798,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +2136,7 @@
   <dimension ref="E1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +2177,7 @@
   <dimension ref="C4:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +2231,7 @@
   <dimension ref="C4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +2279,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2421,7 @@
   <dimension ref="C1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2510,7 @@
   <dimension ref="D1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2558,7 @@
   <dimension ref="D2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2604,7 @@
   <dimension ref="D2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
